--- a/dataset/score/srikaalahasteeswara.xlsx
+++ b/dataset/score/srikaalahasteeswara.xlsx
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="G2" t="n">
         <v>0.75</v>
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8894736842105264</v>
+        <v>0.8714285714285716</v>
       </c>
       <c r="G3" t="n">
         <v>0.75</v>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J3" t="n">
         <v>0.75</v>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.7947368421052632</v>
+        <v>0.8357142857142857</v>
       </c>
       <c r="G4" t="n">
         <v>0.75</v>
@@ -625,10 +625,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J4" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.8447368421052632</v>
+        <v>0.8357142857142857</v>
       </c>
       <c r="G7" t="n">
         <v>0.75</v>
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J7" t="n">
         <v>0.5</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.945</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -817,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J8" t="n">
         <v>0.75</v>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.8973684210526315</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G9" t="n">
         <v>0.75</v>
@@ -865,10 +865,10 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J9" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.58</v>
+        <v>0.5042857142857142</v>
       </c>
       <c r="G10" t="n">
         <v>0.75</v>
@@ -913,7 +913,7 @@
         <v>0.95</v>
       </c>
       <c r="I10" t="n">
-        <v>0.45</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J10" t="n">
         <v>0.25</v>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.8921052631578947</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G12" t="n">
         <v>0.75</v>
@@ -1009,10 +1009,10 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J12" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9421052631578947</v>
+        <v>0.8785714285714284</v>
       </c>
       <c r="G15" t="n">
         <v>0.75</v>
@@ -1153,10 +1153,10 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G16" t="n">
         <v>0.75</v>
@@ -1201,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.8973684210526315</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G19" t="n">
         <v>0.75</v>
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J19" t="n">
         <v>0.75</v>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.8973684210526315</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G22" t="n">
         <v>0.75</v>
@@ -1489,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J22" t="n">
         <v>0.75</v>
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G23" t="n">
         <v>0.75</v>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J23" t="n">
         <v>0.75</v>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1585,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J24" t="n">
         <v>0.5</v>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G26" t="n">
         <v>0.75</v>
@@ -1684,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1825,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1876,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1921,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J31" t="n">
         <v>0.5</v>
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G33" t="n">
         <v>0.75</v>
@@ -2017,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G34" t="n">
         <v>0.75</v>
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J34" t="n">
         <v>0.75</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2161,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J36" t="n">
         <v>0.75</v>
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.8921052631578947</v>
+        <v>0.8785714285714284</v>
       </c>
       <c r="G37" t="n">
         <v>0.75</v>
@@ -2209,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J37" t="n">
         <v>0.75</v>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.8447368421052632</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G40" t="n">
         <v>0.75</v>
@@ -2353,10 +2353,10 @@
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.945</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J42" t="n">
         <v>0.75</v>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.8949999999999999</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2641,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J46" t="n">
         <v>0.5</v>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.9949999999999999</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2785,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2881,10 +2881,10 @@
         <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.8973684210526315</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G53" t="n">
         <v>0.75</v>
@@ -2977,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J53" t="n">
         <v>0.75</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3025,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3064,7 +3064,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.8949999999999999</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3073,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J55" t="n">
         <v>0.75</v>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.8447368421052632</v>
+        <v>0.8357142857142857</v>
       </c>
       <c r="G56" t="n">
         <v>0.75</v>
@@ -3121,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J56" t="n">
         <v>0.75</v>
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3268,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.9475</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3361,10 +3361,10 @@
         <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J61" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K61" t="n">
         <v>1</v>
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.8973684210526315</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G62" t="n">
         <v>0.75</v>
@@ -3409,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J62" t="n">
         <v>0.75</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G64" t="n">
         <v>0.75</v>
@@ -3505,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3652,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.945</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3697,10 +3697,10 @@
         <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J68" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K68" t="n">
         <v>1</v>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G69" t="n">
         <v>0.75</v>
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -3784,7 +3784,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.8473684210526315</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G70" t="n">
         <v>0.75</v>
@@ -3793,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J70" t="n">
         <v>0.75</v>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.99</v>
+        <v>0.9714285714285715</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3841,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0.95</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G72" t="n">
         <v>0.75</v>
@@ -3889,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -3928,7 +3928,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.8473684210526315</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G73" t="n">
         <v>0.75</v>
@@ -3937,10 +3937,10 @@
         <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J73" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.8975</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3985,10 +3985,10 @@
         <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J74" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K74" t="n">
         <v>1</v>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G75" t="n">
         <v>0.75</v>
@@ -4033,7 +4033,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4180,7 +4180,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K78" t="n">
         <v>1</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.47</v>
+        <v>0.4117857142857143</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4321,7 +4321,7 @@
         <v>-0.01249999999999996</v>
       </c>
       <c r="I81" t="n">
-        <v>0.6125</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="J81" t="n">
         <v>0.25</v>
@@ -4408,7 +4408,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4417,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J83" t="n">
         <v>0.5</v>
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.8473684210526315</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G84" t="n">
         <v>0.75</v>
@@ -4465,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J84" t="n">
         <v>0.5</v>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.8973684210526315</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G87" t="n">
         <v>0.75</v>
@@ -4609,7 +4609,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J87" t="n">
         <v>0.75</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.8473684210526315</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G89" t="n">
         <v>0.75</v>
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J89" t="n">
         <v>0.5</v>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G90" t="n">
         <v>0.75</v>
@@ -4753,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J90" t="n">
         <v>0.75</v>
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.6131578947368421</v>
+        <v>0.5590225563909775</v>
       </c>
       <c r="G91" t="n">
         <v>0.75</v>
@@ -4801,7 +4801,7 @@
         <v>0.9736842105263158</v>
       </c>
       <c r="I91" t="n">
-        <v>0.5921052631578947</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="J91" t="n">
         <v>0.25</v>
@@ -4840,7 +4840,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.8473684210526315</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G92" t="n">
         <v>0.75</v>
@@ -4849,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J92" t="n">
         <v>0.5</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4948,7 +4948,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G95" t="n">
         <v>0.75</v>
@@ -4993,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -5080,7 +5080,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5092,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K97" t="n">
         <v>1</v>
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.8214285714285715</v>
       </c>
       <c r="G98" t="n">
         <v>0.75</v>
@@ -5137,10 +5137,10 @@
         <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J98" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K98" t="n">
         <v>0.75</v>
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.8473684210526315</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G100" t="n">
         <v>0.75</v>
@@ -5233,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J100" t="n">
         <v>0.5</v>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.7973684210526316</v>
+        <v>0.7928571428571429</v>
       </c>
       <c r="G101" t="n">
         <v>0.75</v>
@@ -5281,7 +5281,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J101" t="n">
         <v>0.25</v>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5332,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K102" t="n">
         <v>1</v>
@@ -5368,7 +5368,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.945</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5377,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J103" t="n">
         <v>0.75</v>
@@ -5416,7 +5416,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.9949999999999999</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5425,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.875</v>
+        <v>0.854642857142857</v>
       </c>
       <c r="G105" t="n">
         <v>0.75</v>
@@ -5473,7 +5473,7 @@
         <v>0.9875</v>
       </c>
       <c r="I105" t="n">
-        <v>0.8875</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="J105" t="n">
         <v>0.75</v>
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.8949999999999999</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5521,10 +5521,10 @@
         <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J106" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K106" t="n">
         <v>1</v>
@@ -5560,7 +5560,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.5575</v>
+        <v>0.4974999999999999</v>
       </c>
       <c r="G107" t="n">
         <v>0.75</v>
@@ -5569,7 +5569,7 @@
         <v>0.9875</v>
       </c>
       <c r="I107" t="n">
-        <v>0.55</v>
+        <v>0.25</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5617,7 +5617,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J108" t="n">
         <v>1</v>
@@ -5656,7 +5656,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.8925000000000001</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5665,10 +5665,10 @@
         <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J109" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K109" t="n">
         <v>1</v>
@@ -5704,7 +5704,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.945</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J110" t="n">
         <v>0.75</v>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J111" t="n">
         <v>0.5</v>
@@ -5848,7 +5848,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J113" t="n">
         <v>0.75</v>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5908,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K114" t="n">
         <v>1</v>
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G116" t="n">
         <v>0.75</v>
@@ -6001,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J116" t="n">
         <v>1</v>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J120" t="n">
         <v>0.75</v>

--- a/dataset/score/srikaalahasteeswara.xlsx
+++ b/dataset/score/srikaalahasteeswara.xlsx
@@ -466,12 +466,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>n_aksharalu_score</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>n_paadalu_score</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>n_aksharalu_score</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -568,10 +568,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8714285714285716</v>
+        <v>0.9714285714285715</v>
       </c>
       <c r="G3" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -580,7 +580,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="J3" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -616,10 +616,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.8357142857142857</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G4" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -628,7 +628,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -664,10 +664,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -760,10 +760,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.8357142857142857</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G7" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -820,7 +820,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J8" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G9" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -904,13 +904,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.5042857142857142</v>
+        <v>0.5542857142857143</v>
       </c>
       <c r="G10" t="n">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="H10" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0.07142857142857142</v>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9285714285714285</v>
+        <v>0.9785714285714284</v>
       </c>
       <c r="G12" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1099,7 +1099,7 @@
         <v>0.85</v>
       </c>
       <c r="G14" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1108,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8785714285714284</v>
+        <v>0.9785714285714284</v>
       </c>
       <c r="G15" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1156,7 +1156,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="J15" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -1192,10 +1192,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G16" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G19" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1348,7 +1348,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J19" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1384,10 +1384,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1444,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G22" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1528,10 +1528,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G23" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1540,7 +1540,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J23" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1588,7 +1588,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1720,10 +1720,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1768,10 +1768,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G28" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.9928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1828,7 +1828,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1876,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1924,7 +1924,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1972,7 +1972,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G33" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -2059,7 +2059,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="G34" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -2068,7 +2068,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J34" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -2104,10 +2104,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G35" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2164,7 +2164,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J36" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.8785714285714284</v>
+        <v>0.9785714285714284</v>
       </c>
       <c r="G37" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -2212,7 +2212,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="J37" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2260,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2308,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -2344,10 +2344,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G40" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -2356,7 +2356,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J40" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2452,7 +2452,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J42" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
@@ -2680,10 +2680,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2836,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
         <v>1</v>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2884,7 +2884,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J51" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -2920,10 +2920,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G52" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -2968,10 +2968,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G53" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -2980,7 +2980,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J53" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
         <v>1</v>
@@ -3064,7 +3064,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3076,7 +3076,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J55" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>0.75</v>
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.8357142857142857</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G56" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3316,7 +3316,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3364,7 +3364,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J61" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K61" t="n">
         <v>1</v>
@@ -3400,10 +3400,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G62" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -3448,10 +3448,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -3496,10 +3496,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G64" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3556,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K65" t="n">
         <v>1</v>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3604,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K66" t="n">
         <v>1</v>
@@ -3736,10 +3736,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G69" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>1</v>
@@ -3784,10 +3784,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G70" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>1</v>
@@ -3796,7 +3796,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J70" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
         <v>0.75</v>
@@ -3880,10 +3880,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G72" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>1</v>
@@ -3928,10 +3928,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G73" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
@@ -3940,7 +3940,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J73" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
@@ -4024,10 +4024,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G75" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4084,7 +4084,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
         <v>1</v>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4180,7 +4180,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K78" t="n">
         <v>1</v>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4228,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
@@ -4264,10 +4264,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>1</v>
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.4117857142857143</v>
+        <v>0.5617857142857143</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0.9875</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.01249999999999996</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0.3214285714285715</v>
       </c>
       <c r="J81" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
         <v>0.5</v>
@@ -4360,10 +4360,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>1</v>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
         <v>1</v>
@@ -4408,7 +4408,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4420,7 +4420,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J83" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
         <v>1</v>
@@ -4456,10 +4456,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G84" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
@@ -4468,7 +4468,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J84" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K84" t="n">
         <v>1</v>
@@ -4552,10 +4552,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -4564,7 +4564,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
         <v>1</v>
@@ -4600,10 +4600,10 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G87" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -4612,7 +4612,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J87" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K87" t="n">
         <v>1</v>
@@ -4648,10 +4648,10 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>1</v>
@@ -4660,7 +4660,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
         <v>1</v>
@@ -4696,10 +4696,10 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G89" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>1</v>
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G90" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>1</v>
@@ -4792,13 +4792,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.5590225563909775</v>
+        <v>0.6090225563909775</v>
       </c>
       <c r="G91" t="n">
-        <v>0.75</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="H91" t="n">
-        <v>0.9736842105263158</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0.3214285714285715</v>
@@ -4840,10 +4840,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G92" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>1</v>
@@ -4852,7 +4852,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J92" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
         <v>1</v>
@@ -4891,16 +4891,16 @@
         <v>0.95</v>
       </c>
       <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
         <v>0.75</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1</v>
       </c>
       <c r="K93" t="n">
         <v>1</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4948,7 +4948,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
@@ -4987,7 +4987,7 @@
         <v>0.9428571428571428</v>
       </c>
       <c r="G95" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>1</v>
@@ -4996,7 +4996,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K95" t="n">
         <v>1</v>
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -5044,7 +5044,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
         <v>1</v>
@@ -5080,7 +5080,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5092,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
         <v>1</v>
@@ -5128,10 +5128,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.8214285714285715</v>
+        <v>0.8714285714285716</v>
       </c>
       <c r="G98" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5188,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
         <v>1</v>
@@ -5224,10 +5224,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G100" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -5236,7 +5236,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J100" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
         <v>1</v>
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.7928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G101" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>1</v>
@@ -5284,7 +5284,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J101" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K101" t="n">
         <v>1</v>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5332,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K102" t="n">
         <v>1</v>
@@ -5368,7 +5368,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5380,7 +5380,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J103" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K103" t="n">
         <v>1</v>
@@ -5464,13 +5464,13 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.854642857142857</v>
+        <v>0.9046428571428571</v>
       </c>
       <c r="G105" t="n">
-        <v>0.75</v>
+        <v>0.9875</v>
       </c>
       <c r="H105" t="n">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0.7857142857142857</v>
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5524,7 +5524,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J106" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K106" t="n">
         <v>1</v>
@@ -5560,19 +5560,19 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.4974999999999999</v>
+        <v>0.5974999999999999</v>
       </c>
       <c r="G107" t="n">
-        <v>0.75</v>
+        <v>0.9875</v>
       </c>
       <c r="H107" t="n">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0.25</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K107" t="n">
         <v>0.5</v>
@@ -5656,7 +5656,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.9285714285714285</v>
+        <v>0.9785714285714284</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5668,7 +5668,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="J109" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K109" t="n">
         <v>1</v>
@@ -5704,7 +5704,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5716,7 +5716,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J110" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K110" t="n">
         <v>1</v>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5764,7 +5764,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J111" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K111" t="n">
         <v>1</v>
@@ -5848,7 +5848,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5860,7 +5860,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J113" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K113" t="n">
         <v>1</v>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5908,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K114" t="n">
         <v>1</v>
@@ -5944,10 +5944,10 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
         <v>1</v>
@@ -5992,10 +5992,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G116" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>1</v>
@@ -6040,10 +6040,10 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>1</v>
@@ -6091,16 +6091,16 @@
         <v>0.95</v>
       </c>
       <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
         <v>0.75</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>1</v>
       </c>
       <c r="K118" t="n">
         <v>1</v>
@@ -6136,10 +6136,10 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>1</v>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K119" t="n">
         <v>1</v>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6196,7 +6196,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J120" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K120" t="n">
         <v>1</v>
